--- a/WEB.CMS/wwwroot/Template/Import/Hulotoy-mass-upload-product.xlsx
+++ b/WEB.CMS/wwwroot/Template/Import/Hulotoy-mass-upload-product.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirrors\Desktop\Git Sources\cms_hultotoy\WEB.CMS\wwwroot\Template\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirrors\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F151665-533F-426F-AC09-11A0702BDD84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E7CF4-FFF1-4C7B-8C7A-E4E9B37AA235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{FA4E14AA-99DA-4B49-819D-A948FB50934E}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>Ngành hàng</t>
   </si>
@@ -335,6 +335,48 @@
   </si>
   <si>
     <t>Chiều cao (cm)</t>
+  </si>
+  <si>
+    <t>San pham Test 01</t>
+  </si>
+  <si>
+    <t>SKU-TEST-001</t>
+  </si>
+  <si>
+    <t>Màu</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Xanh</t>
+  </si>
+  <si>
+    <t>Kích cỡ</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>https://static-image.adavigo.com/uploads/images/2024/9/16/00f9cfd8-264f-4eeb-abf6-e4456526ebac.jpg</t>
+  </si>
+  <si>
+    <t>Hulotoy Services</t>
+  </si>
+  <si>
+    <t>SKU-TEST-001-1</t>
+  </si>
+  <si>
+    <t>SKU-TEST-001-2</t>
+  </si>
+  <si>
+    <t>SKU-TEST-001-3</t>
+  </si>
+  <si>
+    <t>SKU-TEST-001-4</t>
   </si>
 </sst>
 </file>
@@ -744,17 +786,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C541941-95A3-4271-8DC2-0465FE287B4B}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="30" width="25" customWidth="1"/>
+    <col min="12" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="98.28515625" customWidth="1"/>
+    <col min="17" max="30" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -847,6 +891,242 @@
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2">
+        <v>100000</v>
+      </c>
+      <c r="M2">
+        <v>50000</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z2">
+        <v>800</v>
+      </c>
+      <c r="AA2">
+        <v>54</v>
+      </c>
+      <c r="AB2">
+        <v>56</v>
+      </c>
+      <c r="AC2">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3">
+        <v>200000</v>
+      </c>
+      <c r="M3">
+        <v>20000</v>
+      </c>
+      <c r="O3">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3">
+        <v>900</v>
+      </c>
+      <c r="AA3">
+        <v>54</v>
+      </c>
+      <c r="AB3">
+        <v>56</v>
+      </c>
+      <c r="AC3">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>150000</v>
+      </c>
+      <c r="M4">
+        <v>30000</v>
+      </c>
+      <c r="O4">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4">
+        <v>1000</v>
+      </c>
+      <c r="AA4">
+        <v>54</v>
+      </c>
+      <c r="AB4">
+        <v>56</v>
+      </c>
+      <c r="AC4">
+        <v>55</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5">
+        <v>130000</v>
+      </c>
+      <c r="M5">
+        <v>20000</v>
+      </c>
+      <c r="O5">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z5">
+        <v>1100</v>
+      </c>
+      <c r="AA5">
+        <v>54</v>
+      </c>
+      <c r="AB5">
+        <v>56</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1523,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WEB.CMS/wwwroot/Template/Import/Hulotoy-mass-upload-product.xlsx
+++ b/WEB.CMS/wwwroot/Template/Import/Hulotoy-mass-upload-product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirrors\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirrors\Desktop\Git Sources\cms_hultotoy\WEB.CMS\wwwroot\Template\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E7CF4-FFF1-4C7B-8C7A-E4E9B37AA235}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709DB9B-B078-42FB-84C9-8F8605ED7EE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{FA4E14AA-99DA-4B49-819D-A948FB50934E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách sản phẩm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>Ngành hàng</t>
   </si>
@@ -161,25 +161,7 @@
     <t>Mô tả sản phẩm rõ ràng giúp nâng cao chất lượng sản phẩm đối với Người mua và tăng doanh số hiệu quả</t>
   </si>
   <si>
-    <t>SKU sản phẩm là thông tin giúp phân loại sản phẩm trên hệ thống một cách hiệu quả. Sản phẩm có nhiều phân loại sẽ có chung SKU sản phẩm. Số SKU sản phẩm không được trùng lặp.</t>
-  </si>
-  <si>
     <t>Bắt buộc đối với sản phẩm có phân loại. bạn có thể sử dụng nó như 1 từ khóa cho SKU sản phẩm và các phân loại của nó</t>
-  </si>
-  <si>
-    <t>Thêm tên nhóm phân loại hàng 1 (nếu có)</t>
-  </si>
-  <si>
-    <t>Thêm giá trị nhóm phân loại hàng 1</t>
-  </si>
-  <si>
-    <t>Tải lên 1 hình ảnh cho mỗi phân loại</t>
-  </si>
-  <si>
-    <t>Thêm tên nhóm phân loại hàng 2 (nếu có)</t>
-  </si>
-  <si>
-    <t>Thêm giá trị nhóm phân loại hàng 2 (nếu có)</t>
   </si>
   <si>
     <t>Nhập giá của sản phẩm</t>
@@ -337,53 +319,178 @@
     <t>Chiều cao (cm)</t>
   </si>
   <si>
-    <t>San pham Test 01</t>
-  </si>
-  <si>
-    <t>SKU-TEST-001</t>
-  </si>
-  <si>
-    <t>Màu</t>
-  </si>
-  <si>
-    <t>Trắng</t>
-  </si>
-  <si>
-    <t>Xanh</t>
-  </si>
-  <si>
-    <t>Kích cỡ</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>https://static-image.adavigo.com/uploads/images/2024/9/16/00f9cfd8-264f-4eeb-abf6-e4456526ebac.jpg</t>
   </si>
   <si>
     <t>Hulotoy Services</t>
   </si>
   <si>
-    <t>SKU-TEST-001-1</t>
-  </si>
-  <si>
-    <t>SKU-TEST-001-2</t>
-  </si>
-  <si>
-    <t>SKU-TEST-001-3</t>
-  </si>
-  <si>
-    <t>SKU-TEST-001-4</t>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>Test02</t>
+  </si>
+  <si>
+    <t>Độ tuổi</t>
+  </si>
+  <si>
+    <t>Từ 1-2 tuổi</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>https://static-image.adavigo.com/uploads/images/2024/8/23/b206a9f7-793a-48b1-bb1b-7b774cafe922.jpeg</t>
+  </si>
+  <si>
+    <t>Từ 2-3 tuổi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm tên nhóm phân loại hàng 1 (nếu có)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý: Với các sản phẩm chỉ có không có biến thể hoặc chỉ có 1 biến thể, vui lòng không nhập vào trường này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm giá trị nhóm phân loại hàng 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý: Với các sản phẩm chỉ có không có biến thể hoặc chỉ có 1 biến thể, vui lòng không nhập vào trường này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm giá trị nhóm phân loại hàng 2 (nếu có)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý: Với các sản phẩm chỉ có không có biến thể hoặc chỉ có 1 biến thể, vui lòng không nhập vào trường này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm tên nhóm phân loại hàng 2 (nếu có)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý: Với các sản phẩm chỉ có không có biến thể hoặc chỉ có 1 biến thể, vui lòng không nhập vào trường này</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tải lên 1 hình ảnh cho mỗi phân loại
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Lưu ý: Với các sản phẩm chỉ có không có biến thể hoặc chỉ có 1 biến thể, vui lòng không nhập vào trường này</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhật</t>
+  </si>
+  <si>
+    <t>S001-1</t>
+  </si>
+  <si>
+    <t>S002-1</t>
+  </si>
+  <si>
+    <t>S002-2</t>
+  </si>
+  <si>
+    <t>Sản phẩm chỉ có 1 biến thể</t>
+  </si>
+  <si>
+    <t>Sản phẩm có 2 biến thể (Biến thể 1)</t>
+  </si>
+  <si>
+    <t>Sản phẩm có 2 biến thể (Biến thể 2)</t>
+  </si>
+  <si>
+    <t>Sản phẩm chỉ có 1 biến thể - Mô tả sản phẩm</t>
+  </si>
+  <si>
+    <t>Sản phẩm có 2 biến thể (Biến thể 1) - Mô tả sản phẩm</t>
+  </si>
+  <si>
+    <t>Sản phẩm có 2 biến thể (Biến thể 2) - Mô tả sản phẩm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SKU sản phẩm là thông tin giúp phân loại sản phẩm trên hệ thống một cách hiệu quả. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sản phẩm có nhiều phân loại sẽ có chung SKU sản phẩm.  SKU sản phẩm không được trùng lặp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +522,19 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -455,10 +575,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,8 +593,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,30 +921,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C541941-95A3-4271-8DC2-0465FE287B4B}">
-  <dimension ref="A1:AD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="15" width="25" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="6" customWidth="1"/>
+    <col min="4" max="15" width="25" customWidth="1"/>
     <col min="16" max="16" width="98.28515625" customWidth="1"/>
     <col min="17" max="30" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -824,28 +961,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -878,122 +1015,128 @@
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="C2">
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>500000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>200000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>700000</v>
+      </c>
+      <c r="N2" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2">
-        <v>100000</v>
-      </c>
-      <c r="M2">
-        <v>50000</v>
-      </c>
-      <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2">
+      <c r="O2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="5">
         <v>800</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>54</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="5">
         <v>56</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="5">
         <v>55</v>
       </c>
-      <c r="AD2" t="s">
-        <v>107</v>
+      <c r="AD2" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>99</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3">
+        <v>600000</v>
+      </c>
+      <c r="L3">
+        <v>300000</v>
+      </c>
+      <c r="M3">
+        <v>900000</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="I3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3">
-        <v>200000</v>
-      </c>
-      <c r="M3">
-        <v>20000</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
       </c>
       <c r="Z3">
         <v>900</v>
@@ -1008,51 +1151,54 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
         <v>98</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>102</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="K4">
+        <v>800000</v>
       </c>
       <c r="L4">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="M4">
-        <v>30000</v>
-      </c>
-      <c r="O4">
-        <v>43</v>
+        <v>1200000</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="Z4">
         <v>1000</v>
@@ -1067,79 +1213,24 @@
         <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5">
-        <v>130000</v>
-      </c>
-      <c r="M5">
-        <v>20000</v>
-      </c>
-      <c r="O5">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z5">
-        <v>1100</v>
-      </c>
-      <c r="AA5">
-        <v>54</v>
-      </c>
-      <c r="AB5">
-        <v>56</v>
-      </c>
-      <c r="AC5">
-        <v>5</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18604EAD-62B3-43FC-AB90-D0FD2526DE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -1246,11 +1337,11 @@
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>40</v>
@@ -1342,174 +1433,174 @@
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="AD4" s="2"/>
     </row>
@@ -1519,11 +1610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AFD54F-53FD-4D67-B264-AA3A6D22454F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,15 +1625,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1550,7 +1641,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1558,7 +1649,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1566,7 +1657,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>9</v>
@@ -1574,7 +1665,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1582,7 +1673,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1590,7 +1681,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -1598,7 +1689,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>18</v>
